--- a/Logiciel_PEP/mysite/polls/static/polls/BV_test.xlsx
+++ b/Logiciel_PEP/mysite/polls/static/polls/BV_test.xlsx
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="I13" s="24" t="n">
-        <v>1080</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1" s="115">
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="I14" s="27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1" s="115">

--- a/Logiciel_PEP/mysite/polls/static/polls/BV_test.xlsx
+++ b/Logiciel_PEP/mysite/polls/static/polls/BV_test.xlsx
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="I13" s="24" t="n">
-        <v>0</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1" s="115">
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="I14" s="27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1" s="115">

--- a/Logiciel_PEP/mysite/polls/static/polls/BV_test.xlsx
+++ b/Logiciel_PEP/mysite/polls/static/polls/BV_test.xlsx
@@ -1103,7 +1103,7 @@
       </c>
       <c r="H2" s="7" t="inlineStr">
         <is>
-          <t>N° 24027</t>
+          <t>N° 24001</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       <c r="H3" s="8" t="n"/>
       <c r="I3" s="10" t="inlineStr">
         <is>
-          <t>05 février 2024</t>
+          <t>21 July 2024</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="G4" s="12" t="inlineStr">
         <is>
-          <t>Antony FEORD</t>
+          <t>Antony Feord</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="G6" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 rue des Maraichers </t>
+          <t>4 rue des M</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="G8" s="14" t="inlineStr">
         <is>
-          <t>67000 STRASBOURG</t>
+          <t>77420 France</t>
         </is>
       </c>
     </row>
@@ -1188,8 +1188,10 @@
           <t>N° SS :</t>
         </is>
       </c>
-      <c r="H10" s="18" t="n">
-        <v>102116748297847</v>
+      <c r="H10" s="18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1" s="115">
@@ -1207,7 +1209,7 @@
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>23e41</t>
+          <t>24e01</t>
         </is>
       </c>
       <c r="G13" s="23" t="inlineStr">
@@ -1216,7 +1218,7 @@
         </is>
       </c>
       <c r="I13" s="24" t="n">
-        <v>1080</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1" s="115">
@@ -1236,7 +1238,7 @@
         </is>
       </c>
       <c r="I14" s="27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1" s="115">
@@ -1401,7 +1403,7 @@
         <v/>
       </c>
       <c r="F23" s="55" t="n">
-        <v>0.0066</v>
+        <v>0.66</v>
       </c>
       <c r="G23" s="56">
         <f>ROUND(F23*E23,2)</f>
